--- a/artfynd/A 39150-2024 artfynd.xlsx
+++ b/artfynd/A 39150-2024 artfynd.xlsx
@@ -803,7 +803,7 @@
         <v>130669698</v>
       </c>
       <c r="B3" t="n">
-        <v>58312</v>
+        <v>58316</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
